--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129797.7685006003</v>
+        <v>127096.5518491434</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.2791855053266</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>163.8495334516266</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.3109578483102</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>138.9339082820141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>60.28305201077406</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>102.42578550041</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154322</v>
+        <v>285.5480936332718</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863678</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>30.25488447871579</v>
       </c>
       <c r="I6" t="n">
-        <v>30.25488447872241</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
         <v>225.8398728426018</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41.90032871921046</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>76.88408041560099</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.90523611264345</v>
+        <v>1.905236112643607</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>264.6530118728085</v>
       </c>
       <c r="Y8" t="n">
-        <v>298.5194647325645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>115.2359027268891</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>133.6217194166333</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>284.1718770255447</v>
       </c>
       <c r="C11" t="n">
-        <v>194.5971138582357</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393747</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184546</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615206</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530785</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>105.5089280640943</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>105.5089280640925</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905234</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>186.2346889920368</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.63081821229343</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856066</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.8253826161895126</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695472</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.019807611477187</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922635</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>7.069540131684107</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710065</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.02356321677969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.799772605713997</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>136.1078891637027</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.4649598217083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>82.47290449300768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673024</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>235.8905539345549</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.295034370326</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605715493</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703264</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428107</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722611</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E2" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344767</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672986</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4364,16 +4364,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>224.7000239929554</v>
+        <v>592.8578645128691</v>
       </c>
       <c r="C3" t="n">
-        <v>224.7000239929554</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="D3" t="n">
-        <v>224.7000239929554</v>
+        <v>427.3532852688019</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>268.1158302633464</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>121.5812722902313</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>611.5747118810663</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>611.5747118810663</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>357.3373551528646</v>
+        <v>800.618163277823</v>
       </c>
       <c r="X3" t="n">
-        <v>357.3373551528646</v>
+        <v>800.618163277823</v>
       </c>
       <c r="Y3" t="n">
-        <v>224.7000239929554</v>
+        <v>592.8578645128691</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.3243389909744</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C4" t="n">
-        <v>308.3243389909744</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640393</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640393</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>574.7019955581525</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="W4" t="n">
-        <v>308.3243389909744</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="X4" t="n">
-        <v>308.3243389909744</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="Y4" t="n">
-        <v>308.3243389909744</v>
+        <v>171.2137498124562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628.9675538274472</v>
+        <v>695.0354537262353</v>
       </c>
       <c r="C5" t="n">
-        <v>628.9675538274472</v>
+        <v>326.0729367858236</v>
       </c>
       <c r="D5" t="n">
-        <v>628.9675538274472</v>
+        <v>326.0729367858236</v>
       </c>
       <c r="E5" t="n">
-        <v>525.5071644330936</v>
+        <v>326.0729367858236</v>
       </c>
       <c r="F5" t="n">
-        <v>518.5616636838902</v>
+        <v>319.1274360366202</v>
       </c>
       <c r="G5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523458</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275232</v>
+        <v>93.76641159275124</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245571</v>
+        <v>239.0325989245557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825648</v>
+        <v>456.1499114825624</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748881</v>
+        <v>729.4041931748848</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798411</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189414</v>
+        <v>1446.535482189408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518257</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="T5" t="n">
-        <v>1389.996673518257</v>
+        <v>1322.152679850797</v>
       </c>
       <c r="U5" t="n">
-        <v>1389.996673518257</v>
+        <v>1068.501211987315</v>
       </c>
       <c r="V5" t="n">
-        <v>1389.996673518257</v>
+        <v>1068.501211987315</v>
       </c>
       <c r="W5" t="n">
-        <v>1389.996673518257</v>
+        <v>1068.501211987315</v>
       </c>
       <c r="X5" t="n">
-        <v>1016.530915257177</v>
+        <v>695.0354537262353</v>
       </c>
       <c r="Y5" t="n">
-        <v>628.9675538274472</v>
+        <v>695.0354537262353</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.25550759768146</v>
+        <v>61.25550759767464</v>
       </c>
       <c r="C6" t="n">
-        <v>61.25550759768146</v>
+        <v>61.25550759767464</v>
       </c>
       <c r="D6" t="n">
-        <v>61.25550759768146</v>
+        <v>61.25550759767464</v>
       </c>
       <c r="E6" t="n">
-        <v>61.25550759768146</v>
+        <v>61.25550759767464</v>
       </c>
       <c r="F6" t="n">
-        <v>61.25550759768146</v>
+        <v>61.25550759767464</v>
       </c>
       <c r="G6" t="n">
-        <v>61.25550759768146</v>
+        <v>61.25550759767464</v>
       </c>
       <c r="H6" t="n">
-        <v>61.25550759768146</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523458</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626392</v>
+        <v>174.2721860626388</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039499</v>
+        <v>284.4686930039491</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353023</v>
+        <v>478.9640368353009</v>
       </c>
       <c r="M6" t="n">
-        <v>725.2877975060486</v>
+        <v>725.2877975060467</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584466</v>
+        <v>992.5396600782688</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749985</v>
+        <v>1319.29448074998</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948674</v>
+        <v>1478.347425948667</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="S6" t="n">
-        <v>1390.282497655824</v>
+        <v>1390.282497655817</v>
       </c>
       <c r="T6" t="n">
-        <v>1194.377855207508</v>
+        <v>1194.377855207501</v>
       </c>
       <c r="U6" t="n">
-        <v>966.2567715281125</v>
+        <v>966.2567715281057</v>
       </c>
       <c r="V6" t="n">
-        <v>731.1046632963698</v>
+        <v>731.104663296363</v>
       </c>
       <c r="W6" t="n">
-        <v>476.8673065681682</v>
+        <v>476.8673065681614</v>
       </c>
       <c r="X6" t="n">
-        <v>269.0158063626354</v>
+        <v>269.0158063626286</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.25550759768146</v>
+        <v>61.25550759767464</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>690.3761774656704</v>
+        <v>396.38861667786</v>
       </c>
       <c r="C7" t="n">
-        <v>690.3761774656704</v>
+        <v>396.38861667786</v>
       </c>
       <c r="D7" t="n">
-        <v>648.0526131028315</v>
+        <v>396.38861667786</v>
       </c>
       <c r="E7" t="n">
-        <v>500.1395195204384</v>
+        <v>396.38861667786</v>
       </c>
       <c r="F7" t="n">
-        <v>353.249572022528</v>
+        <v>318.7279293893741</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8683296605918</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="H7" t="n">
-        <v>32.61949914709665</v>
+        <v>150.3466870274378</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709665</v>
+        <v>32.61949914709668</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523458</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="K7" t="n">
-        <v>157.432275622327</v>
+        <v>157.4322756223266</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830395</v>
+        <v>375.1387655830387</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388161</v>
+        <v>615.068857638815</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974836</v>
+        <v>854.728564797482</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.076798891671</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495183</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495186</v>
+        <v>1030.691890529572</v>
       </c>
       <c r="T7" t="n">
-        <v>1234.200536495186</v>
+        <v>806.0266324061171</v>
       </c>
       <c r="U7" t="n">
-        <v>945.0606656715572</v>
+        <v>806.0266324061171</v>
       </c>
       <c r="V7" t="n">
-        <v>690.3761774656704</v>
+        <v>806.0266324061171</v>
       </c>
       <c r="W7" t="n">
-        <v>690.3761774656704</v>
+        <v>806.0266324061171</v>
       </c>
       <c r="X7" t="n">
-        <v>690.3761774656704</v>
+        <v>578.0370815080997</v>
       </c>
       <c r="Y7" t="n">
-        <v>690.3761774656704</v>
+        <v>578.0370815080997</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1502.660066001256</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.12525314008</v>
+        <v>2295.013053781158</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,40 +4878,40 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.0018823909472</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="C10" t="n">
-        <v>666.0018823909472</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786115</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962184</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>997.8555832003441</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288652</v>
+        <v>743.1710949944572</v>
       </c>
       <c r="W10" t="n">
-        <v>886.7944615344774</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="X10" t="n">
-        <v>886.7944615344774</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="Y10" t="n">
-        <v>666.0018823909472</v>
+        <v>453.7539249574967</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.490329133572</v>
+        <v>1975.187201147706</v>
       </c>
       <c r="C11" t="n">
-        <v>1288.927587862627</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1606.224684207294</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643828</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747752</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592073</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592073</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J11" t="n">
         <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656976</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
         <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087833</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484044</v>
+        <v>2455.600890484045</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535299</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479998</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3573.020743926745</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.52680204827</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.4639147047</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434585</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173505</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197694</v>
+        <v>2262.229501173508</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592073</v>
+        <v>193.8410919870415</v>
       </c>
       <c r="K12" t="n">
-        <v>272.7431585655885</v>
+        <v>470.776996404666</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235399</v>
+        <v>889.4740370626179</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180068</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1933.239912720357</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2401.18095705288</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2401.18095705288</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>184.1123407281353</v>
+        <v>184.1123407281373</v>
       </c>
       <c r="C13" t="n">
-        <v>184.1123407281352</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="D13" t="n">
-        <v>184.1123407281352</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="E13" t="n">
-        <v>184.1123407281352</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="F13" t="n">
-        <v>184.1123407281353</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="G13" t="n">
-        <v>184.1123407281353</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592078</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.855221875865</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648147</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344815</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925583</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.627619458879</v>
+        <v>1868.627619458881</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.736286893319</v>
+        <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.64459384277</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1103.960105636883</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>814.5429355999224</v>
+        <v>814.5429355999245</v>
       </c>
       <c r="X13" t="n">
-        <v>586.5533847019051</v>
+        <v>586.5533847019071</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.760805558375</v>
+        <v>365.760805558377</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,31 +5273,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434706</v>
+        <v>580.0655846733341</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155637</v>
+        <v>411.1294017454272</v>
       </c>
       <c r="D16" t="n">
-        <v>701.0383482155637</v>
+        <v>261.0127623330914</v>
       </c>
       <c r="E16" t="n">
-        <v>553.1252546331707</v>
+        <v>261.0127623330914</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429753</v>
+        <v>261.0127623330914</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578553</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000533</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797744</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2263.27452942083</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2043.673064443771</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258105</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052218</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1210.496179545121</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.41557511724</v>
+        <v>982.506628647104</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.62299597371</v>
+        <v>761.7140495035738</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,19 +5592,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245714</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.17510664033</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876686</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597617</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098309969</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098309969</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330865</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797186</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602303</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396416</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614385</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179083</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,16 +5747,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615996</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400691</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121622</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F22" t="n">
         <v>343.0994656851784</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138388</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703098</v>
+        <v>695.5020655703088</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921487</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187003</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579747</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>545.3854261579747</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>398.4954786600644</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>231.2993793749443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,10 +6242,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718135</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327642</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>763.7541388327642</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>613.6374994204284</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>465.7244058380353</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>318.834458340125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630039</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6549,10 +6549,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745235</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400706</v>
+        <v>571.6607764188004</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121637</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121637</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121637</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121637</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327548</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138404</v>
+        <v>974.1018203925703</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703104</v>
+        <v>753.3092412490402</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745235</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188007</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
         <v>402.7245934908938</v>
@@ -7087,10 +7087,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,16 +7111,16 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
         <v>2035.268256189238</v>
@@ -7138,7 +7138,7 @@
         <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490404</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,37 +7163,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7214,10 +7214,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400705</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270436</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7336,10 +7336,10 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138404</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703103</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192537</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400705</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270436</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038341</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138404</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703103</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745235</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270439</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636986</v>
+        <v>34.4393943863702</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,10 +8304,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>105.5468419254493</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>105.546841925447</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>98.56196463793589</v>
       </c>
       <c r="C11" t="n">
-        <v>170.6757779127718</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>61.73789303453353</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>37.44296690242572</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.25352389927372</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>77.79022981063781</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>65.54986409393544</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>5.85001617220778e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5956654067352</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.8084169651576</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124984</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.186823682521208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.11969353038646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>83.05123379926117</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>50.29392045468926</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405084</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194242</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194282</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194255</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>978000.0762437228</v>
+        <v>978000.0762437233</v>
       </c>
     </row>
     <row r="6">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923205</v>
+      </c>
+      <c r="C2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
-      <c r="C2" t="n">
-        <v>348942.7521923203</v>
-      </c>
-      <c r="D2" t="n">
-        <v>348942.7521923202</v>
-      </c>
       <c r="E2" t="n">
-        <v>311350.4288166185</v>
+        <v>311350.4288166187</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682525</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
         <v>343037.3048682526</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682525</v>
@@ -26353,7 +26353,7 @@
         <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.219065708</v>
+        <v>132804.2190657064</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929366</v>
+        <v>265413.0723929385</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545772</v>
+        <v>313577.1573545778</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704289</v>
+        <v>189308.2687704281</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417443</v>
+        <v>30877.4292641741</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049542</v>
+        <v>65018.34502049586</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273077</v>
+        <v>81897.40371273088</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202358</v>
+        <v>49839.57413202336</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078826</v>
+        <v>210579.7944078831</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
@@ -26427,37 +26427,37 @@
         <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732041</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732048</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732022</v>
+        <v>8117.312426731963</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732017</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732008</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732018</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732036</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426732002</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426732056</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426732006</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667503</v>
+        <v>72593.6503866749</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738566</v>
+        <v>85137.48506738573</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-640946.8990013703</v>
       </c>
       <c r="C6" t="n">
-        <v>-67034.91166794536</v>
+        <v>-67034.91166794383</v>
       </c>
       <c r="D6" t="n">
-        <v>-143726.0929023247</v>
+        <v>-143726.0929023265</v>
       </c>
       <c r="E6" t="n">
-        <v>-95376.10747242985</v>
+        <v>-95597.238786405</v>
       </c>
       <c r="F6" t="n">
-        <v>44489.19384718468</v>
+        <v>44454.45592174989</v>
       </c>
       <c r="G6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.7246921778</v>
       </c>
       <c r="H6" t="n">
-        <v>233797.4626176138</v>
+        <v>233762.7246921777</v>
       </c>
       <c r="I6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.7246921778</v>
       </c>
       <c r="J6" t="n">
-        <v>164798.3081984993</v>
+        <v>164763.570273064</v>
       </c>
       <c r="K6" t="n">
-        <v>202920.0333534391</v>
+        <v>202885.2954280037</v>
       </c>
       <c r="L6" t="n">
-        <v>168779.1175971183</v>
+        <v>168744.3796716819</v>
       </c>
       <c r="M6" t="n">
-        <v>151900.0589048829</v>
+        <v>151865.320979447</v>
       </c>
       <c r="N6" t="n">
-        <v>183957.8884855898</v>
+        <v>183923.1505601543</v>
       </c>
       <c r="O6" t="n">
-        <v>233797.4626176135</v>
+        <v>233762.7246921778</v>
       </c>
       <c r="P6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.7246921778</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695756</v>
+        <v>717.3319511695744</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154322</v>
+        <v>383.6877278154305</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490097</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000973</v>
+        <v>103.276937400096</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479635</v>
+        <v>216.7329409479651</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974111</v>
+        <v>268.1763450974116</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267234</v>
+        <v>165.7342631267227</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.9738478139244</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846067</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139257</v>
+        <v>119.9738478139244</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846067</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506382</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.181584835737601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139259</v>
+        <v>119.9738478139244</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846067</v>
+        <v>256.8971042846085</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489702</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506391</v>
+        <v>203.4874641506384</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5968602363849</v>
+        <v>174.596860236385</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>50.47975262776184</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27436,7 +27436,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>8.858965536689169</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.37173792899421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>9.681564736198254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>191.8545913130539</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>279.5045845718518</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>28.73126316233773</v>
+        <v>126.8708973444981</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863698</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840621389</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>67.0790035646165</v>
       </c>
       <c r="I6" t="n">
-        <v>6.018580290794844</v>
+        <v>36.27346476951735</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713735</v>
+        <v>4.360182258713891</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>106.7151442990019</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>68.53696760733025</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>105.0780888056606</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.71847392348906</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>170.9912513943115</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>152.9012789199577</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4.884091088141518e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.343281372915953e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.814868255678448e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365126</v>
+        <v>2.883746537365121</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5331692257906</v>
+        <v>29.53316922579055</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756936</v>
+        <v>244.7543826756932</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023594</v>
+        <v>366.8233736023588</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952475</v>
+        <v>455.0768316952467</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791145</v>
+        <v>506.3606591791137</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284032</v>
+        <v>514.5541040284023</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974787</v>
+        <v>485.8788493974779</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562771</v>
+        <v>414.6863567562764</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.4121838868879</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277623</v>
+        <v>181.1461434277619</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020787</v>
+        <v>65.71337422020775</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892096</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270405</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.90155619316418</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189782</v>
+        <v>53.12316808189773</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.7740335862623</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453799</v>
+        <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438665</v>
+        <v>335.0143230438659</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874187</v>
+        <v>390.945913387418</v>
       </c>
       <c r="N6" t="n">
-        <v>401.293088418912</v>
+        <v>401.2930884189113</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348676</v>
+        <v>367.104776934867</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190659</v>
+        <v>294.6339480190654</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.954991573956</v>
+        <v>196.9549915739556</v>
       </c>
       <c r="R6" t="n">
-        <v>95.7976518939294</v>
+        <v>95.79765189392924</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399199</v>
+        <v>28.65944163399194</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989055</v>
+        <v>6.219132670989044</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.101509238373053</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141855</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257206</v>
+        <v>38.90055892572053</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402932</v>
+        <v>91.45394400402917</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.2869235401173</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.3155201545446</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773277</v>
+        <v>202.7697513773273</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022537</v>
+        <v>197.9483399022533</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669601</v>
+        <v>182.8373307669598</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565115</v>
+        <v>58.16268574565105</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101764</v>
+        <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060663</v>
+        <v>5.526983886060653</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864686</v>
+        <v>0.07055724109864674</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869146</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639241</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285605</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975129</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.704257454466</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954563</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180171</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956808</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620361</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825971</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495316</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469214</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>335.0187042770537</v>
+        <v>417.5746757598383</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747751</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821483</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340509</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924477</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.7767623746022</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868434</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092169</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798457</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329028</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100543</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.433553380624</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493066</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811714</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493541</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473724</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722594</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32786,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>362.8934092184366</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,10 +33050,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34442,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197792</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34793,7 +34793,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900731</v>
+        <v>63.70847814900688</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573789</v>
+        <v>146.7335225573783</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252603</v>
+        <v>219.3104167252595</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518418</v>
+        <v>276.014425951841</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318123</v>
+        <v>285.1410404318114</v>
       </c>
       <c r="O5" t="n">
-        <v>255.780637975792</v>
+        <v>255.7806379757912</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010076</v>
+        <v>183.4533610010069</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243896</v>
+        <v>89.10649401243845</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600047</v>
+        <v>145.0274422600044</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710209</v>
+        <v>111.3096029710205</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639923</v>
+        <v>196.4599432639917</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654004</v>
+        <v>248.8118794653997</v>
       </c>
       <c r="N6" t="n">
-        <v>375.4982182610279</v>
+        <v>269.9513763355779</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904232</v>
+        <v>330.0553744158696</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047357</v>
+        <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793445</v>
+        <v>56.97321748793411</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.0174317142345</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148611</v>
+        <v>219.9055454148607</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391683</v>
+        <v>242.3536283391679</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814823</v>
+        <v>242.0805122814819</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809998</v>
+        <v>207.4224586809994</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491153</v>
+        <v>22.15508137491135</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525324</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844788</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681836</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214263</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.229922273994</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067666</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081476</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553091</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>197.1772653026947</v>
+        <v>279.7332367854793</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949009</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507176</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480032</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.7949882885807</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186284</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388471</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323316</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946637</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142001</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502411</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010422</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>224.3390294385624</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753348</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
